--- a/silvilidar/fotos/tabla.xlsx
+++ b/silvilidar/fotos/tabla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dierabfr\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\silvilidar\fotos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dierabfr\AppData\Local\Temp\archivos_lidar\borrar10\fotos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF810A8-D1A7-46C5-BA2A-9F8F67FFD91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55D3EF7-19E8-4A08-89F3-531932F61699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34650" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{4B2F7276-4803-414C-B27B-CDF76D5C2FA0}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Fustales Maduros aclarados. Tienen H&gt;16,5 m.</t>
   </si>
   <si>
-    <t xml:space="preserve">	Fustales Maduros muy densos susceptibles de clara urgente. Tienen H&gt;16,5 m.</t>
-  </si>
-  <si>
     <t>Fustales Maduros claros. Tienen H&gt;16,5 m.</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Latizales Altos o Fustales Bajos aclarados o claros si se trata de masas de crecimiento muy lento, con distribución en matas, o Latizales Altos claros para el resto de las masas. Tienen H=6-8,5m.</t>
   </si>
   <si>
-    <t xml:space="preserve">	Latizales Altos aclarados o claros si se trata de masas de crecimiento lento, con distribución discontinua en matas, o Latizales Bajos en desarrollo para el resto de masas. Tienen H=4-6 m.</t>
-  </si>
-  <si>
     <t>Latizales Altos o Fustales Bajos densos susceptibles de resalveo o clara si se trata de masas de crecimiento muy lento, con distribución en matas, o Latizales Altos en desarrollo susceptibles, quizás, de ser escamondados o podados para el resto de las masas. Tienen H=6-8,5m.</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t>Zonas con cobertura inferior al 10%</t>
   </si>
   <si>
-    <t xml:space="preserve">	Zonas con vegetación con H&lt;2 m.</t>
-  </si>
-  <si>
     <t>Zonas sin cobertura.</t>
   </si>
   <si>
@@ -192,6 +183,15 @@
   </si>
   <si>
     <t>Masas con H=2-4 m.</t>
+  </si>
+  <si>
+    <t>Fustales Maduros muy densos susceptibles de clara urgente. Tienen H&gt;16,5 m.</t>
+  </si>
+  <si>
+    <t>Latizales Altos aclarados o claros si se trata de masas de crecimiento lento, con distribución discontinua en matas, o Latizales Bajos en desarrollo para el resto de masas. Tienen H=4-6 m.</t>
+  </si>
+  <si>
+    <t>Zonas con vegetación con H&lt;2 m.</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,10 +590,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -601,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -612,10 +612,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,10 +623,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -634,10 +634,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -645,10 +645,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -656,10 +656,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -667,10 +667,10 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,10 +678,10 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -689,10 +689,10 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -700,10 +700,10 @@
         <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -711,10 +711,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -733,10 +733,10 @@
         <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -744,10 +744,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -755,10 +755,10 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -766,10 +766,10 @@
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -777,10 +777,10 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -788,10 +788,10 @@
         <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -799,10 +799,10 @@
         <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -810,10 +810,10 @@
         <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -821,10 +821,10 @@
         <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -832,10 +832,10 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/silvilidar/fotos/tabla.xlsx
+++ b/silvilidar/fotos/tabla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dierabfr\AppData\Local\Temp\archivos_lidar\borrar10\fotos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dierabfr\AppData\Local\Temp\archivos_lidar\c10\fotos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55D3EF7-19E8-4A08-89F3-531932F61699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF40746-E532-4BCB-B937-182FFD884373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34650" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{4B2F7276-4803-414C-B27B-CDF76D5C2FA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B2F7276-4803-414C-B27B-CDF76D5C2FA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>cod</t>
   </si>
@@ -56,33 +56,9 @@
     <t>Fustales Maduros claros. Tienen H&gt;16,5 m.</t>
   </si>
   <si>
-    <t>Fustales aclarados. Tienen H=11,5-16,5 m.</t>
-  </si>
-  <si>
-    <t>Fustales densos susceptibles de clara. Tienen H=11,5-16,5 m.</t>
-  </si>
-  <si>
     <t>Fustales con densidad suficiente como para realizar clara suave y, tal vez si se aceptan diámetros altos, poda alta.</t>
   </si>
   <si>
-    <t>Fustales claros. Tienen H=11,5-16,5 m.</t>
-  </si>
-  <si>
-    <t>Latizales Altos o Fustales Bajos aclarados. Tienen H=8,5-11,5 m.</t>
-  </si>
-  <si>
-    <t>Latizales Altos o Fustales Bajos densos susceptibles de primera clara (y de poda alta). Tienen H=8,5-11,5 m.</t>
-  </si>
-  <si>
-    <t>Latizales Altos o Fustales Bajos con densidad suficiente para realizar poda alta y clara suave. Tienen H=8,5-11,5 m.</t>
-  </si>
-  <si>
-    <t>Fustales desarrollados susceptibles de clara si son masas de crecimiento lento, o si no, Fustales Bajos no densos. Tienen H=8,5-11,5 m.</t>
-  </si>
-  <si>
-    <t>Latizales Altos o Fustales Bajos aclarados o claros, o Fustales aclarados o claros si son masas de crecimiento lento. Tienen H=8,5-11,5 m.</t>
-  </si>
-  <si>
     <t>Latizales Altos o Fustales Bajos aclarados o claros si se trata de masas de crecimiento muy lento, con distribución en matas, o Latizales Altos claros para el resto de las masas. Tienen H=6-8,5m.</t>
   </si>
   <si>
@@ -192,6 +168,108 @@
   </si>
   <si>
     <t>Zonas con vegetación con H&lt;2 m.</t>
+  </si>
+  <si>
+    <t>Latizales Altos o Fustales Bajos aclarados o claros, o Fustales aclarados o claros si son masas de crecimiento lento. Tienen H=8,5-12 m.</t>
+  </si>
+  <si>
+    <t>Fustales desarrollados susceptibles de clara si son masas de crecimiento lento, o si no, Fustales Bajos no densos. Tienen H=8,5-12 m.</t>
+  </si>
+  <si>
+    <t>Latizales Altos o Fustales Bajos con densidad suficiente para realizar poda alta y clara suave. Tienen H=8,5-12 m.</t>
+  </si>
+  <si>
+    <t>Latizales Altos o Fustales Bajos densos susceptibles de primera clara (y de poda alta). Tienen H=8,5-12 m.</t>
+  </si>
+  <si>
+    <t>Latizales Altos o Fustales Bajos aclarados. Tienen H=8,5-12 m.</t>
+  </si>
+  <si>
+    <t>Fustales claros. Tienen H=12-16,5 m.</t>
+  </si>
+  <si>
+    <t>Fustales densos susceptibles de clara. Tienen H=12-16,5 m.</t>
+  </si>
+  <si>
+    <t>Fustales aclarados. Tienen H=12-16,5 m.</t>
+  </si>
+  <si>
+    <t>foto2</t>
+  </si>
+  <si>
+    <t>fotos/foto0_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto1_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto11_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto2_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto17_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto3_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto4_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto51_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto15_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto142_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto13_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto122_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto112_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto141_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto121_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto82_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto111_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto10_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto9_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto81_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto77_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto7_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto62_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto61_.jpg</t>
+  </si>
+  <si>
+    <t>fotos/foto52_.jpg</t>
   </si>
 </sst>
 </file>
@@ -563,18 +641,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96FA847-E603-4A0D-9EAF-DD58B16CC124}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="177.7109375" customWidth="1"/>
+    <col min="2" max="2" width="237" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,228 +663,291 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>112</v>
       </c>
@@ -813,32 +955,41 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>142</v>
       </c>
@@ -846,10 +997,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15</v>
       </c>
@@ -857,7 +1011,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
